--- a/metrics/Team eXi Task Metrics.xlsx
+++ b/metrics/Team eXi Task Metrics.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang Hui Xin\Documents\FYP\Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang Hui Xin\Documents\FYP\Thriving-Stones-Project\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733D1798-8B2E-4DE8-A085-13942D880532}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA676D-D049-4A3B-A177-816F3C7C1F82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedule Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Task Metric" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Iteration</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Reestimated the number of tasks for the future iterations and deducted the number of days behind schedule from buffer days</t>
+  </si>
+  <si>
+    <t>19/7/2018</t>
+  </si>
+  <si>
+    <t>Estimates are fairly on track and we are fairly on track.</t>
   </si>
 </sst>
 </file>
@@ -211,14 +217,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,7 +674,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43166</v>
       </c>
       <c r="D7" s="4">
@@ -681,49 +687,60 @@
         <f>E7/D7</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <f>E8/D8</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/metrics/Team eXi Task Metrics.xlsx
+++ b/metrics/Team eXi Task Metrics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang Hui Xin\Documents\FYP\Thriving-Stones-Project\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiXin\Documents\FYP\Thriving-Stones-Project\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA676D-D049-4A3B-A177-816F3C7C1F82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B9D8C-6517-434E-8416-E4F3F123F1CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Metric" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Iteration</t>
   </si>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,15 +712,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
+      <c r="C9" s="5">
+        <v>43167</v>
+      </c>
+      <c r="D9" s="4">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <f>E9/D9</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="3">

--- a/metrics/Team eXi Task Metrics.xlsx
+++ b/metrics/Team eXi Task Metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiXin\Documents\FYP\Thriving-Stones-Project\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xin\Documents\FYP\Thriving-Stones-Project\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B9D8C-6517-434E-8416-E4F3F123F1CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0ED74B-06AD-4850-86BD-1D0EEB5E6585}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Iteration</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Estimates are fairly on track and we are fairly on track.</t>
+  </si>
+  <si>
+    <t>17/8/2018</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,15 +736,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <f>E10/D10</f>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="3">

--- a/metrics/Team eXi Task Metrics.xlsx
+++ b/metrics/Team eXi Task Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xin\Documents\FYP\Thriving-Stones-Project\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0ED74B-06AD-4850-86BD-1D0EEB5E6585}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F706D1E-B804-47DE-9E97-E454D84A273D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Iteration</t>
   </si>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>17/8/2018</t>
+  </si>
+  <si>
+    <t>Estimates are fairly on track and we are fairly on track.
+Due to our tight deadline, we added in additional tasks in the next iteration</t>
   </si>
 </sst>
 </file>
@@ -611,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,15 +761,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="5">
+        <v>43109</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4">
+        <f>E11/D11</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/metrics/Team eXi Task Metrics.xlsx
+++ b/metrics/Team eXi Task Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xin\Documents\FYP\Thriving-Stones-Project\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F706D1E-B804-47DE-9E97-E454D84A273D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738E3C92-CB52-4142-94CE-4863E55E44D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Iteration</t>
   </si>
@@ -66,6 +71,17 @@
   <si>
     <t>Estimates are fairly on track and we are fairly on track.
 Due to our tight deadline, we added in additional tasks in the next iteration</t>
+  </si>
+  <si>
+    <t>16/9/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimates are fairly on track and we are fairly on track.
+</t>
+  </si>
+  <si>
+    <t>Estimates are fairly on track and we are fairly on track.
+However, we had a lot of unplanned tasks with higher priority and hence our original planned tasks were shifted behind and that would require the team to work on a tighter deadline with more tasks in the following iterations to ensure that the project remains on progress</t>
   </si>
 </sst>
 </file>
@@ -274,13 +290,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2880529</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -613,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G13"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,20 +798,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
+    <row r="12" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4">
+        <f>E12/D12</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="7">
+        <v>43110</v>
+      </c>
+      <c r="D13" s="4">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4">
+        <f>E13/D13</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:G5"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
